--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3198.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3198.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8887592903763624</v>
+        <v>1.672615647315979</v>
       </c>
       <c r="B1">
-        <v>1.402993817577075</v>
+        <v>2.492033243179321</v>
       </c>
       <c r="C1">
-        <v>3.715226608627102</v>
+        <v>2.864604234695435</v>
       </c>
       <c r="D1">
-        <v>5.908716225148239</v>
+        <v>3.304876089096069</v>
       </c>
       <c r="E1">
-        <v>2.038421356141731</v>
+        <v>1.046448111534119</v>
       </c>
     </row>
   </sheetData>
